--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8C4E5-CC26-46CA-B9DB-07A94984FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4130DA-2323-44A5-A8FC-8DBA790DF24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="3006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="3025">
   <si>
     <t>UID</t>
   </si>
@@ -9059,6 +9059,63 @@
   </si>
   <si>
     <t>There is talk about release / merge to trunk but result is no</t>
+  </si>
+  <si>
+    <t>It is an release status update</t>
+  </si>
+  <si>
+    <t>Email is precursur to issue ADD</t>
+  </si>
+  <si>
+    <t>Email answers if ADD exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue discusses replacement whilst email explains current </t>
+  </si>
+  <si>
+    <t>Email is succesor ADD to issue ADD</t>
+  </si>
+  <si>
+    <t>Email is questioning if ADD exists</t>
+  </si>
+  <si>
+    <t>Email is actually related to HDFS-5324, but that has a word count of 49 instead of 50+</t>
+  </si>
+  <si>
+    <t>Could be related, but is another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>Duplicate because email is send twice</t>
+  </si>
+  <si>
+    <t>Pluggable storage engine</t>
+  </si>
+  <si>
+    <t>Could be related, but probably is another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>Email refers issue, but not related</t>
+  </si>
+  <si>
+    <t>Email is a bug question without answer</t>
+  </si>
+  <si>
+    <t>Email is related to another issue YARN-3480</t>
+  </si>
+  <si>
+    <t>Email is a generic question</t>
+  </si>
+  <si>
+    <t>Email is unanswered question</t>
+  </si>
+  <si>
+    <t>email is a question</t>
+  </si>
+  <si>
+    <t>The issue is an UNDO of a feature merge. Feature is later rejected but was already merged to trunk. It is pattern 4 but with an extra 'undo'.</t>
+  </si>
+  <si>
+    <t>3 or 7</t>
   </si>
 </sst>
 </file>
@@ -9081,7 +9138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9130,6 +9187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -9143,7 +9206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9154,6 +9217,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9441,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10998,6 +11062,15 @@
       <c r="Q43" t="s">
         <v>1295</v>
       </c>
+      <c r="S43" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="T43" s="3">
+        <v>6</v>
+      </c>
+      <c r="U43" t="s">
+        <v>3006</v>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -11030,6 +11103,13 @@
       <c r="Q44" t="s">
         <v>1302</v>
       </c>
+      <c r="S44" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T44" s="9"/>
+      <c r="U44" t="s">
+        <v>3007</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -11062,6 +11142,12 @@
       <c r="Q45" t="s">
         <v>1280</v>
       </c>
+      <c r="S45" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="U45" t="s">
+        <v>3008</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -11094,6 +11180,9 @@
       <c r="Q46" t="s">
         <v>1308</v>
       </c>
+      <c r="S46" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -11126,6 +11215,9 @@
       <c r="Q47" t="s">
         <v>1364</v>
       </c>
+      <c r="S47" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -11158,8 +11250,11 @@
       <c r="Q48" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S48" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11159174</v>
       </c>
@@ -11190,8 +11285,11 @@
       <c r="Q49" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S49" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12975959</v>
       </c>
@@ -11222,8 +11320,14 @@
       <c r="Q50" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S50" s="1">
+        <v>7</v>
+      </c>
+      <c r="T50" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12884704</v>
       </c>
@@ -11254,8 +11358,14 @@
       <c r="Q51" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S51" s="1">
+        <v>7</v>
+      </c>
+      <c r="T51" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13678647</v>
       </c>
@@ -11286,8 +11396,15 @@
       <c r="Q52" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S52" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T52" s="9"/>
+      <c r="U52" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12237086</v>
       </c>
@@ -11318,8 +11435,11 @@
       <c r="Q53" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14068067</v>
       </c>
@@ -11350,8 +11470,15 @@
       <c r="Q54" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S54" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T54" s="9"/>
+      <c r="U54" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12970762</v>
       </c>
@@ -11382,8 +11509,14 @@
       <c r="Q55" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S55" s="1">
+        <v>7</v>
+      </c>
+      <c r="T55" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12449780</v>
       </c>
@@ -11414,8 +11547,11 @@
       <c r="Q56" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S56" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>11507867</v>
       </c>
@@ -11446,8 +11582,14 @@
       <c r="Q57" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S57" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="U57" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14038395</v>
       </c>
@@ -11478,8 +11620,15 @@
       <c r="Q58" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S58" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="U58" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13127865</v>
       </c>
@@ -11510,8 +11659,11 @@
       <c r="Q59" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S59" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13646716</v>
       </c>
@@ -11542,8 +11694,15 @@
       <c r="Q60" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S60" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T60" s="9"/>
+      <c r="U60" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14363999</v>
       </c>
@@ -11574,8 +11733,11 @@
       <c r="Q61" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S61" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14669072</v>
       </c>
@@ -11606,8 +11768,14 @@
       <c r="Q62" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S62" s="1">
+        <v>7</v>
+      </c>
+      <c r="U62" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13447668</v>
       </c>
@@ -11638,8 +11806,11 @@
       <c r="Q63" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S63" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12569172</v>
       </c>
@@ -11670,8 +11841,14 @@
       <c r="Q64" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S64" s="3">
+        <v>7</v>
+      </c>
+      <c r="T64" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14947626</v>
       </c>
@@ -11702,8 +11879,15 @@
       <c r="Q65" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S65" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T65" s="9"/>
+      <c r="U65" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12979215</v>
       </c>
@@ -11734,8 +11918,11 @@
       <c r="Q66" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S66" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13450397</v>
       </c>
@@ -11766,8 +11953,11 @@
       <c r="Q67" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S67" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14238013</v>
       </c>
@@ -11798,8 +11988,15 @@
       <c r="Q68" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S68" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T68" s="9"/>
+      <c r="U68" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12761650</v>
       </c>
@@ -11830,8 +12027,15 @@
       <c r="Q69" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S69" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T69" s="9"/>
+      <c r="U69" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14074049</v>
       </c>
@@ -11862,8 +12066,11 @@
       <c r="Q70" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S70" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>13131643</v>
       </c>
@@ -11894,8 +12101,11 @@
       <c r="Q71" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S71" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12658792</v>
       </c>
@@ -11926,8 +12136,15 @@
       <c r="Q72" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S72" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T72" s="9"/>
+      <c r="U72" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12970727</v>
       </c>
@@ -11958,8 +12175,11 @@
       <c r="Q73" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S73" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>10763987</v>
       </c>
@@ -11990,8 +12210,11 @@
       <c r="Q74" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S74" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14426263</v>
       </c>
@@ -12022,8 +12245,11 @@
       <c r="Q75" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S75" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10702762</v>
       </c>
@@ -12054,8 +12280,14 @@
       <c r="Q76" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S76" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U76" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>11954032</v>
       </c>
@@ -12086,8 +12318,11 @@
       <c r="Q77" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S77" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>11141767</v>
       </c>
@@ -12118,8 +12353,11 @@
       <c r="Q78" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S78" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11264200</v>
       </c>
@@ -12150,8 +12388,14 @@
       <c r="Q79" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S79" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="U79" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14502362</v>
       </c>
@@ -12182,8 +12426,14 @@
       <c r="Q80" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S80" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U80" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14433472</v>
       </c>
@@ -12214,8 +12464,15 @@
       <c r="Q81" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S81" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T81" s="9"/>
+      <c r="U81" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13758202</v>
       </c>
@@ -12246,8 +12503,11 @@
       <c r="Q82" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S82" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>13339741</v>
       </c>
@@ -12278,8 +12538,11 @@
       <c r="Q83" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S83" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12141091</v>
       </c>
@@ -12310,8 +12573,11 @@
       <c r="Q84" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S84" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>13663573</v>
       </c>
@@ -12342,8 +12608,11 @@
       <c r="Q85" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S85" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>13514180</v>
       </c>
@@ -12374,8 +12643,15 @@
       <c r="Q86" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S86" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="T86" s="9"/>
+      <c r="U86" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15028530</v>
       </c>
@@ -12406,8 +12682,14 @@
       <c r="Q87" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S87" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="U87" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12070900</v>
       </c>
@@ -12438,8 +12720,11 @@
       <c r="Q88" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S88" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12484045</v>
       </c>
@@ -12470,9 +12755,12 @@
       <c r="Q89" t="s">
         <v>1365</v>
       </c>
+      <c r="S89" s="6" t="s">
+        <v>885</v>
+      </c>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12978066</v>
       </c>
@@ -12503,8 +12791,11 @@
       <c r="Q90" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S90" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>13953099</v>
       </c>
@@ -12535,8 +12826,11 @@
       <c r="Q91" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S91" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>11297127</v>
       </c>
@@ -12567,8 +12861,14 @@
       <c r="Q92" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S92" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U92" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>10717345</v>
       </c>
@@ -12599,8 +12899,11 @@
       <c r="Q93" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S93" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>13471024</v>
       </c>
@@ -12631,8 +12934,11 @@
       <c r="Q94" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S94" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14416264</v>
       </c>
@@ -12663,8 +12969,11 @@
       <c r="Q95" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S95" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>11634378</v>
       </c>
@@ -12695,8 +13004,14 @@
       <c r="Q96" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S96" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U96" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12450269</v>
       </c>
@@ -12727,8 +13042,11 @@
       <c r="Q97" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S97" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14363846</v>
       </c>
@@ -12759,8 +13077,11 @@
       <c r="Q98" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S98" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12776072</v>
       </c>
@@ -12791,8 +13112,11 @@
       <c r="Q99" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S99" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>12363630</v>
       </c>
@@ -12823,8 +13147,14 @@
       <c r="Q100" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S100" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="U100" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10656400</v>
       </c>
@@ -12855,8 +13185,11 @@
       <c r="Q101" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S101" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>12629208</v>
       </c>
@@ -12888,7 +13221,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14730909</v>
       </c>
@@ -12920,7 +13253,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>13231155</v>
       </c>
@@ -12952,7 +13285,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14791055</v>
       </c>
@@ -12984,7 +13317,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12952857</v>
       </c>
@@ -13016,7 +13349,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>12061675</v>
       </c>
@@ -13048,7 +13381,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11295349</v>
       </c>
@@ -13080,7 +13413,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12557849</v>
       </c>
@@ -13112,7 +13445,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>12989800</v>
       </c>
@@ -13144,7 +13477,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>13076558</v>
       </c>
@@ -13176,7 +13509,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>10911963</v>
       </c>
@@ -25666,8 +25999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27758,6 +28091,9 @@
       <c r="Q56" t="s">
         <v>2507</v>
       </c>
+      <c r="T56" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -27790,6 +28126,12 @@
       <c r="Q57" t="s">
         <v>2508</v>
       </c>
+      <c r="T57" s="1">
+        <v>7</v>
+      </c>
+      <c r="V57" t="s">
+        <v>2987</v>
+      </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -27822,6 +28164,9 @@
       <c r="Q58" t="s">
         <v>2509</v>
       </c>
+      <c r="T58" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -27854,6 +28199,9 @@
       <c r="Q59" t="s">
         <v>2510</v>
       </c>
+      <c r="T59" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -27886,6 +28234,13 @@
       <c r="Q60" t="s">
         <v>2511</v>
       </c>
+      <c r="T60" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U60" s="9"/>
+      <c r="V60" t="s">
+        <v>2990</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -27918,6 +28273,15 @@
       <c r="Q61" t="s">
         <v>2512</v>
       </c>
+      <c r="T61" s="4">
+        <v>4</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="V61" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -27950,6 +28314,9 @@
       <c r="Q62" t="s">
         <v>2513</v>
       </c>
+      <c r="T62" s="6" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -27982,6 +28349,10 @@
       <c r="Q63" t="s">
         <v>2514</v>
       </c>
+      <c r="T63" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="U63" s="4"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -28014,8 +28385,11 @@
       <c r="Q64" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T64" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51273774</v>
       </c>
@@ -28046,8 +28420,11 @@
       <c r="Q65" t="s">
         <v>2516</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T65" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>49943451</v>
       </c>
@@ -28078,8 +28455,11 @@
       <c r="Q66" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T66" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>49909379</v>
       </c>
@@ -28111,7 +28491,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>49600928</v>
       </c>
@@ -28143,7 +28523,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49296256</v>
       </c>
@@ -28175,7 +28555,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>49873144</v>
       </c>
@@ -28207,7 +28587,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>49943475</v>
       </c>
@@ -28239,7 +28619,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>50430508</v>
       </c>
@@ -28271,7 +28651,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>49836817</v>
       </c>
@@ -28303,7 +28683,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>50144603</v>
       </c>
@@ -28335,7 +28715,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>49987701</v>
       </c>
@@ -28367,7 +28747,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>51238882</v>
       </c>
@@ -28399,7 +28779,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>49463982</v>
       </c>
@@ -28431,7 +28811,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>50171428</v>
       </c>
@@ -28463,7 +28843,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>51150826</v>
       </c>
@@ -28495,7 +28875,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>50807965</v>
       </c>

--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4130DA-2323-44A5-A8FC-8DBA790DF24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86685F5-3FD9-4F47-B53F-58651658E3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="3025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="3027">
   <si>
     <t>UID</t>
   </si>
@@ -9116,6 +9116,12 @@
   </si>
   <si>
     <t>3 or 7</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>CEP - 15</t>
   </si>
 </sst>
 </file>
@@ -25999,8 +26005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T66" sqref="T66"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28389,7 +28395,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51273774</v>
       </c>
@@ -28424,7 +28430,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>49943451</v>
       </c>
@@ -28459,7 +28465,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>49909379</v>
       </c>
@@ -28490,8 +28496,11 @@
       <c r="Q67" t="s">
         <v>2518</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T67" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>49600928</v>
       </c>
@@ -28522,8 +28531,11 @@
       <c r="Q68" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T68" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49296256</v>
       </c>
@@ -28554,8 +28566,11 @@
       <c r="Q69" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>49873144</v>
       </c>
@@ -28586,8 +28601,15 @@
       <c r="Q70" t="s">
         <v>2521</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T70" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="U70" s="9"/>
+      <c r="V70" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>49943475</v>
       </c>
@@ -28618,8 +28640,11 @@
       <c r="Q71" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T71" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>50430508</v>
       </c>
@@ -28650,8 +28675,11 @@
       <c r="Q72" t="s">
         <v>2523</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T72" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>49836817</v>
       </c>
@@ -28682,8 +28710,11 @@
       <c r="Q73" t="s">
         <v>2524</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T73" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>50144603</v>
       </c>
@@ -28714,8 +28745,11 @@
       <c r="Q74" t="s">
         <v>2525</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T74" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>49987701</v>
       </c>
@@ -28746,8 +28780,11 @@
       <c r="Q75" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T75" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>51238882</v>
       </c>
@@ -28778,8 +28815,11 @@
       <c r="Q76" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T76" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>49463982</v>
       </c>
@@ -28810,8 +28850,14 @@
       <c r="Q77" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T77" s="1">
+        <v>7</v>
+      </c>
+      <c r="V77" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>50171428</v>
       </c>
@@ -28842,8 +28888,11 @@
       <c r="Q78" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T78" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>51150826</v>
       </c>
@@ -28874,8 +28923,14 @@
       <c r="Q79" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T79" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="V79" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>50807965</v>
       </c>
@@ -28906,8 +28961,11 @@
       <c r="Q80" t="s">
         <v>2531</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T80" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>51176967</v>
       </c>
@@ -28938,8 +28996,11 @@
       <c r="Q81" t="s">
         <v>2532</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T81" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>49693200</v>
       </c>
@@ -28970,8 +29031,11 @@
       <c r="Q82" t="s">
         <v>2533</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T82" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>50333487</v>
       </c>
@@ -29002,8 +29066,11 @@
       <c r="Q83" t="s">
         <v>2534</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T83" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>51037140</v>
       </c>
@@ -29034,8 +29101,11 @@
       <c r="Q84" t="s">
         <v>2535</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T84" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>49930060</v>
       </c>
@@ -29066,8 +29136,11 @@
       <c r="Q85" t="s">
         <v>2536</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T85" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>49469247</v>
       </c>
@@ -29098,8 +29171,14 @@
       <c r="Q86" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T86" s="1">
+        <v>7</v>
+      </c>
+      <c r="V86" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>49944121</v>
       </c>
@@ -29130,8 +29209,11 @@
       <c r="Q87" t="s">
         <v>2538</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T87" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>49930485</v>
       </c>
@@ -29162,8 +29244,11 @@
       <c r="Q88" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T88" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>49463893</v>
       </c>
@@ -29194,8 +29279,14 @@
       <c r="Q89" t="s">
         <v>2540</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T89" s="1">
+        <v>7</v>
+      </c>
+      <c r="V89" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>49315798</v>
       </c>
@@ -29226,8 +29317,14 @@
       <c r="Q90" t="s">
         <v>2541</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T90" s="1">
+        <v>7</v>
+      </c>
+      <c r="V90" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>50656622</v>
       </c>
@@ -29258,8 +29355,11 @@
       <c r="Q91" t="s">
         <v>2542</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T91" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>49463853</v>
       </c>
@@ -29290,8 +29390,14 @@
       <c r="Q92" t="s">
         <v>2543</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T92" s="1">
+        <v>7</v>
+      </c>
+      <c r="V92" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>50637183</v>
       </c>
@@ -29322,8 +29428,11 @@
       <c r="Q93" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T93" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>51112464</v>
       </c>
@@ -29354,8 +29463,11 @@
       <c r="Q94" t="s">
         <v>2545</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T94" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>50158065</v>
       </c>
@@ -29386,8 +29498,11 @@
       <c r="Q95" t="s">
         <v>2546</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T95" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>49830534</v>
       </c>
@@ -29418,8 +29533,11 @@
       <c r="Q96" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T96" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>50263460</v>
       </c>
@@ -29450,8 +29568,11 @@
       <c r="Q97" t="s">
         <v>2548</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T97" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>51179331</v>
       </c>
@@ -29482,8 +29603,14 @@
       <c r="Q98" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T98" s="3">
+        <v>7</v>
+      </c>
+      <c r="U98" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51009194</v>
       </c>
@@ -29514,8 +29641,11 @@
       <c r="Q99" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T99" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>49921824</v>
       </c>
@@ -29546,8 +29676,11 @@
       <c r="Q100" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T100" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>51150835</v>
       </c>
@@ -29578,8 +29711,11 @@
       <c r="Q101" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T101" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>49682764</v>
       </c>
@@ -29611,7 +29747,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>49464293</v>
       </c>
@@ -29643,7 +29779,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>50615993</v>
       </c>
@@ -29675,7 +29811,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>50289537</v>
       </c>
@@ -29707,7 +29843,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>50928602</v>
       </c>
@@ -29739,7 +29875,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>49845282</v>
       </c>
@@ -29771,7 +29907,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>49320042</v>
       </c>
@@ -29803,7 +29939,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>51223502</v>
       </c>
@@ -29835,7 +29971,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>49463669</v>
       </c>
@@ -29867,7 +30003,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>49930432</v>
       </c>
@@ -29899,7 +30035,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>49879589</v>
       </c>

--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86685F5-3FD9-4F47-B53F-58651658E3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F22F8-CF62-4331-9AF3-41181F7FD8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="3027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="3023">
   <si>
     <t>UID</t>
   </si>
@@ -9040,18 +9040,9 @@
     <t>CEP-19, which is build ontop of CEP-11, making it difficult. If we look at CEP-19 in a void it should be pattern 8 but it has the wrong issue</t>
   </si>
   <si>
-    <t>Could be technology, but no clear link</t>
-  </si>
-  <si>
-    <t>Unkown</t>
-  </si>
-  <si>
     <t>Mail talks about release of a related jira, but not this jira</t>
   </si>
   <si>
-    <t>The email thread is related to a duplicate of the jira. This jira is marked as duplicate and therefore not directly related.</t>
-  </si>
-  <si>
     <t>Both talk about security</t>
   </si>
   <si>
@@ -9059,9 +9050,6 @@
   </si>
   <si>
     <t>There is talk about release / merge to trunk but result is no</t>
-  </si>
-  <si>
-    <t>It is an release status update</t>
   </si>
   <si>
     <t>Email is precursur to issue ADD</t>
@@ -9511,8 +9499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11034,7 +11022,7 @@
         <v>885</v>
       </c>
       <c r="U42" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -11071,12 +11059,6 @@
       <c r="S43" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="T43" s="3">
-        <v>6</v>
-      </c>
-      <c r="U43" t="s">
-        <v>3006</v>
-      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -11114,7 +11096,7 @@
       </c>
       <c r="T44" s="9"/>
       <c r="U44" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -11152,7 +11134,7 @@
         <v>883</v>
       </c>
       <c r="U45" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -11407,7 +11389,7 @@
       </c>
       <c r="T52" s="9"/>
       <c r="U52" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -11481,7 +11463,7 @@
       </c>
       <c r="T54" s="9"/>
       <c r="U54" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -11592,7 +11574,7 @@
         <v>883</v>
       </c>
       <c r="U57" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -11631,7 +11613,7 @@
       </c>
       <c r="T58" s="10"/>
       <c r="U58" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
@@ -11705,7 +11687,7 @@
       </c>
       <c r="T60" s="9"/>
       <c r="U60" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -11778,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="U62" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
@@ -11851,7 +11833,7 @@
         <v>7</v>
       </c>
       <c r="T64" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -11890,7 +11872,7 @@
       </c>
       <c r="T65" s="9"/>
       <c r="U65" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -11999,7 +11981,7 @@
       </c>
       <c r="T68" s="9"/>
       <c r="U68" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -12038,7 +12020,7 @@
       </c>
       <c r="T69" s="9"/>
       <c r="U69" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -12147,7 +12129,7 @@
       </c>
       <c r="T72" s="9"/>
       <c r="U72" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -12290,7 +12272,7 @@
         <v>885</v>
       </c>
       <c r="U76" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
@@ -12398,7 +12380,7 @@
         <v>883</v>
       </c>
       <c r="U79" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -12436,7 +12418,7 @@
         <v>885</v>
       </c>
       <c r="U80" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
@@ -12475,7 +12457,7 @@
       </c>
       <c r="T81" s="9"/>
       <c r="U81" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
@@ -12654,7 +12636,7 @@
       </c>
       <c r="T86" s="9"/>
       <c r="U86" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
@@ -12692,7 +12674,7 @@
         <v>883</v>
       </c>
       <c r="U87" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -12871,7 +12853,7 @@
         <v>885</v>
       </c>
       <c r="U92" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
@@ -13014,7 +12996,7 @@
         <v>885</v>
       </c>
       <c r="U96" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
@@ -14059,7 +14041,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14025313</v>
       </c>
@@ -14091,7 +14073,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>10722544</v>
       </c>
@@ -14123,7 +14105,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14443454</v>
       </c>
@@ -14155,7 +14137,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>12070625</v>
       </c>
@@ -14187,7 +14169,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13076272</v>
       </c>
@@ -14218,8 +14200,11 @@
       <c r="Q133" t="s">
         <v>2868</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S133" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>11494699</v>
       </c>
@@ -14251,7 +14236,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>11882016</v>
       </c>
@@ -14283,7 +14268,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13460701</v>
       </c>
@@ -14315,7 +14300,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14068104</v>
       </c>
@@ -14347,7 +14332,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>10723295</v>
       </c>
@@ -14379,7 +14364,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13030586</v>
       </c>
@@ -14411,7 +14396,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13659434</v>
       </c>
@@ -14443,7 +14428,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11295575</v>
       </c>
@@ -14475,7 +14460,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>12471959</v>
       </c>
@@ -14507,7 +14492,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>11495784</v>
       </c>
@@ -14539,7 +14524,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14943846</v>
       </c>
@@ -26005,8 +25990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T101" sqref="T101"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27187,7 +27172,7 @@
         <v>886</v>
       </c>
       <c r="V32" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -27416,7 +27401,7 @@
         <v>886</v>
       </c>
       <c r="V38" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -27790,11 +27775,8 @@
       <c r="Q48" t="s">
         <v>2499</v>
       </c>
-      <c r="T48" s="4" t="s">
-        <v>3000</v>
-      </c>
-      <c r="U48" t="s">
-        <v>2999</v>
+      <c r="T48" s="6" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -27832,7 +27814,7 @@
         <v>885</v>
       </c>
       <c r="V49" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -27869,12 +27851,6 @@
       <c r="T50" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="U50" s="3">
-        <v>4</v>
-      </c>
-      <c r="V50" t="s">
-        <v>3002</v>
-      </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -27946,7 +27922,7 @@
         <v>885</v>
       </c>
       <c r="V52" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -27987,7 +27963,7 @@
         <v>886</v>
       </c>
       <c r="V53" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -28028,7 +28004,7 @@
         <v>2993</v>
       </c>
       <c r="V54" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -28286,7 +28262,7 @@
         <v>885</v>
       </c>
       <c r="V61" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -28356,7 +28332,7 @@
         <v>2514</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="U63" s="4"/>
     </row>
@@ -28927,7 +28903,7 @@
         <v>883</v>
       </c>
       <c r="V79" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -29607,7 +29583,7 @@
         <v>7</v>
       </c>
       <c r="U98" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">

--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17FEA65-BD6D-4CAD-A228-C82CFA1EAB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB62CCBC-7FE6-4243-A425-52C1FAD114E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="3023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="3024">
   <si>
     <t>UID</t>
   </si>
@@ -9110,6 +9110,9 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>Pattern counts:</t>
   </si>
 </sst>
 </file>
@@ -9225,2302 +9228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchIssuesAllEmails!$AB$2:$AB$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.80952380952380953</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.86206896551724133</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.83870967741935487</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84848484848484851</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.82857142857142863</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.80555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78378378378378377</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.78947368421052633</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.79487179487179482</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78048780487804881</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.76190476190476186</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.7441860465116279</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.71111111111111114</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.69565217391304346</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.7021276595744681</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69387755102040816</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.68627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.67924528301886788</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.68518518518518523</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.69090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6785714285714286</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.65517241379310343</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.64406779661016944</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.6333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63934426229508201</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.64516129032258063</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.65079365079365081</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.640625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64615384615384619</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65151515151515149</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.64179104477611937</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.63235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.62318840579710144</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.61428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.60563380281690138</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.61111111111111116</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.60273972602739723</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.59459459459459463</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.58666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.57894736842105265</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5641025641025641</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.55696202531645567</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.54878048780487809</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.54216867469879515</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.5357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.52941176470588236</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.52325581395348841</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.51724137931034486</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.51136363636363635</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5056179775280899</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.49450549450549453</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.4891304347826087</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.4838709677419355</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.47872340425531917</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.47368421052631576</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.46391752577319589</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.45918367346938777</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.45454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5247-4A1C-BCC8-4BA379B38997}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1223379648"/>
-        <c:axId val="1223383968"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1223379648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223383968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1223383968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223379648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchEmailsAllIssues!$AC$2:$AC$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.90476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.82758620689655171</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.83870967741935487</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84848484848484851</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.8529411764705882</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.86111111111111116</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.86486486486486491</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.82051282051282048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.80487804878048785</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.7857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.76744186046511631</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.77272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.76086956521739135</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.74468085106382975</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.72916666666666663</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.68627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.69230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.69811320754716977</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.68518518518518523</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.67272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6785714285714286</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.65517241379310343</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.64406779661016944</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63934426229508201</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.62903225806451613</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.61904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.609375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.60606060606060608</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.61194029850746268</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.61764705882352944</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.60869565217391308</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.59154929577464788</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.57534246575342463</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.56756756756756754</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.56578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.55844155844155841</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.55128205128205132</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.54430379746835444</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.53749999999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.53086419753086422</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.52439024390243905</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.51807228915662651</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.51190476190476186</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.51764705882352946</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.51162790697674421</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.51724137931034486</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5280898876404494</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.52222222222222225</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.52747252747252749</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.53260869565217395</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.5268817204301075</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.52127659574468088</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.51578947368421058</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.51041666666666663</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.51546391752577314</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.51020408163265307</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.50505050505050508</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC9F-48AF-BA29-CDAD06D3C17B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1223375808"/>
-        <c:axId val="1223376288"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1223375808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223376288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1223376288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223375808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>322811</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>105294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>18011</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>146858</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EA5384-5E8E-6936-ADC0-5395E423E46F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>191620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>496420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277EF727-D68A-698C-C250-E981E3F5AAC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11786,15 +9493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB501"/>
+  <dimension ref="A1:AD501"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y94" sqref="Y94"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11837,8 +9544,11 @@
       <c r="AB1" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>13092036</v>
       </c>
@@ -11882,8 +9592,15 @@
         <f>AA2/Z2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(S2:S101,AC2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12486517</v>
       </c>
@@ -11928,8 +9645,15 @@
         <f t="shared" ref="AB3:AB66" si="1">AA3/Z3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF(S2:S101,AC3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13205907</v>
       </c>
@@ -11974,8 +9698,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIF(S2:S101,AC4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14554956</v>
       </c>
@@ -12020,8 +9751,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIF(S2:S101,AC5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10836145</v>
       </c>
@@ -12066,8 +9804,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIF(S2:S101,AC6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13433108</v>
       </c>
@@ -12112,8 +9857,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <f>COUNTIF(S2:S101,AC7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12657449</v>
       </c>
@@ -12158,8 +9910,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <f>COUNTIF(S2:S101,AC8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13343773</v>
       </c>
@@ -12204,8 +9963,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <f>COUNTIF(S2:S101,AC9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11264129</v>
       </c>
@@ -12253,8 +10019,15 @@
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <f>COUNTIF(S2:S101,AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14775869</v>
       </c>
@@ -12299,8 +10072,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>12</v>
+      </c>
+      <c r="AD11">
+        <f>COUNTIF(S2:S101,AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11259730</v>
       </c>
@@ -12345,8 +10125,15 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>13</v>
+      </c>
+      <c r="AD12">
+        <f>COUNTIF(S2:S101,AC12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11854910</v>
       </c>
@@ -12391,8 +10178,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <f>COUNTIF(S2:S101,AC13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11494764</v>
       </c>
@@ -12437,8 +10231,15 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <f>COUNTIF(S2:S101,AC14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12558047</v>
       </c>
@@ -12483,8 +10284,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>16</v>
+      </c>
+      <c r="AD15">
+        <f>COUNTIF(S2:S101,AC15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11507874</v>
       </c>
@@ -29377,21 +27185,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
-  <dimension ref="A1:AC501"/>
+  <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29434,8 +27241,11 @@
       <c r="AC1" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>49522668</v>
       </c>
@@ -29479,8 +27289,15 @@
         <f>AB2/AA2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <f>COUNTIF(T2:T101,AD2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50886770</v>
       </c>
@@ -29525,8 +27342,15 @@
         <f t="shared" ref="AC3:AC66" si="0">AB3/AA3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <f>COUNTIF(T2:T101,AD3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>49076734</v>
       </c>
@@ -29571,8 +27395,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <f>COUNTIF(T2:T101,AD4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>51124793</v>
       </c>
@@ -29617,8 +27448,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <f>COUNTIF(T2:T101,AD5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50808963</v>
       </c>
@@ -29666,8 +27504,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <f>COUNTIF(T2:T101,AD6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>49315724</v>
       </c>
@@ -29715,8 +27560,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <f>COUNTIF(T2:T101,AD7)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>49162269</v>
       </c>
@@ -29764,8 +27616,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <f>COUNTIF(T2:T101,AD8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>49463404</v>
       </c>
@@ -29813,8 +27672,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>9</v>
+      </c>
+      <c r="AE9">
+        <f>COUNTIF(T2:T101,AD9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49468393</v>
       </c>
@@ -29862,8 +27728,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD10">
+        <v>11</v>
+      </c>
+      <c r="AE10">
+        <f>COUNTIF(T2:T101,AD10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>49463254</v>
       </c>
@@ -29911,8 +27784,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11">
+        <v>12</v>
+      </c>
+      <c r="AE11">
+        <f>COUNTIF(T2:T101,AD11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50190604</v>
       </c>
@@ -29957,8 +27837,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD12">
+        <v>13</v>
+      </c>
+      <c r="AE12">
+        <f>COUNTIF(T2:T101,AD12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>49988950</v>
       </c>
@@ -30006,8 +27893,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD13">
+        <v>14</v>
+      </c>
+      <c r="AE13">
+        <f>COUNTIF(T2:T101,AD13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50144396</v>
       </c>
@@ -30052,8 +27946,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <v>15</v>
+      </c>
+      <c r="AE14">
+        <f>COUNTIF(T2:T101,AD14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49269545</v>
       </c>
@@ -30101,8 +28002,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15">
+        <v>16</v>
+      </c>
+      <c r="AE15">
+        <f>COUNTIF(T2:T101,AD15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>49873268</v>
       </c>
@@ -45256,6 +43164,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB62CCBC-7FE6-4243-A425-52C1FAD114E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6CA50-BCAD-45BF-9273-B17D0438B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="3024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="3024">
   <si>
     <t>UID</t>
   </si>
@@ -27192,8 +27192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27453,7 +27453,7 @@
       </c>
       <c r="AE5">
         <f>COUNTIF(T2:T101,AD5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="AE8">
         <f>COUNTIF(T2:T101,AD8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -28136,10 +28136,7 @@
       <c r="Q18" t="s">
         <v>2468</v>
       </c>
-      <c r="T18" s="4">
-        <v>8</v>
-      </c>
-      <c r="U18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>883</v>
       </c>
       <c r="V18" t="s">
@@ -28149,12 +28146,12 @@
         <v>17</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>AB17+(IF(ISNUMBER(#REF!),1,0))</f>
+        <v>14</v>
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>0.88235294117647056</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -28196,11 +28193,11 @@
       </c>
       <c r="AB19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC19">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -28242,11 +28239,11 @@
       </c>
       <c r="AB20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -28291,11 +28288,11 @@
       </c>
       <c r="AB21">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -28337,11 +28334,11 @@
       </c>
       <c r="AB22">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.90476190476190477</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -28383,11 +28380,11 @@
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>0.86363636363636365</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -28429,11 +28426,11 @@
       </c>
       <c r="AB24">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC24">
         <f t="shared" si="0"/>
-        <v>0.82608695652173914</v>
+        <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
@@ -28475,11 +28472,11 @@
       </c>
       <c r="AB25">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC25">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -28521,11 +28518,11 @@
       </c>
       <c r="AB26">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC26">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
@@ -28570,11 +28567,11 @@
       </c>
       <c r="AB27">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC27">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -28619,11 +28616,11 @@
       </c>
       <c r="AB28">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC28">
         <f t="shared" si="0"/>
-        <v>0.85185185185185186</v>
+        <v>0.81481481481481477</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -28665,11 +28662,11 @@
       </c>
       <c r="AB29">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC29">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -28715,11 +28712,11 @@
       </c>
       <c r="AB30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC30">
         <f t="shared" si="0"/>
-        <v>0.82758620689655171</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -28761,11 +28758,11 @@
       </c>
       <c r="AB31">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC31">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
@@ -28813,11 +28810,11 @@
       </c>
       <c r="AB32">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC32">
         <f t="shared" si="0"/>
-        <v>0.83870967741935487</v>
+        <v>0.80645161290322576</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -28859,11 +28856,11 @@
       </c>
       <c r="AB33">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC33">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
@@ -28908,11 +28905,11 @@
       </c>
       <c r="AB34">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC34">
         <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -28957,11 +28954,11 @@
       </c>
       <c r="AB35">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC35">
         <f t="shared" si="0"/>
-        <v>0.8529411764705882</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -29007,11 +29004,11 @@
       </c>
       <c r="AB36">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC36">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.82857142857142863</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -29056,11 +29053,11 @@
       </c>
       <c r="AB37">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC37">
         <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -29108,11 +29105,11 @@
       </c>
       <c r="AB38">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC38">
         <f t="shared" si="0"/>
-        <v>0.86486486486486491</v>
+        <v>0.83783783783783783</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -29154,11 +29151,11 @@
       </c>
       <c r="AB39">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC39">
         <f t="shared" si="0"/>
-        <v>0.84210526315789469</v>
+        <v>0.81578947368421051</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
@@ -29203,11 +29200,11 @@
       </c>
       <c r="AB40">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC40">
         <f t="shared" si="0"/>
-        <v>0.82051282051282048</v>
+        <v>0.79487179487179482</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -29252,11 +29249,11 @@
       </c>
       <c r="AB41">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC41">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -29301,11 +29298,11 @@
       </c>
       <c r="AB42">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC42">
         <f t="shared" si="0"/>
-        <v>0.80487804878048785</v>
+        <v>0.78048780487804881</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -29351,11 +29348,11 @@
       </c>
       <c r="AB43">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC43">
         <f t="shared" si="0"/>
-        <v>0.7857142857142857</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
@@ -29400,11 +29397,11 @@
       </c>
       <c r="AB44">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC44">
         <f t="shared" si="0"/>
-        <v>0.76744186046511631</v>
+        <v>0.7441860465116279</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
@@ -29449,11 +29446,11 @@
       </c>
       <c r="AB45">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC45">
         <f t="shared" si="0"/>
-        <v>0.77272727272727271</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
@@ -29501,11 +29498,11 @@
       </c>
       <c r="AB46">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC46">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
@@ -29547,11 +29544,11 @@
       </c>
       <c r="AB47">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC47">
         <f t="shared" si="0"/>
-        <v>0.76086956521739135</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -29593,11 +29590,11 @@
       </c>
       <c r="AB48">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC48">
         <f t="shared" si="0"/>
-        <v>0.74468085106382975</v>
+        <v>0.72340425531914898</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
@@ -29642,11 +29639,11 @@
       </c>
       <c r="AB49">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC49">
         <f t="shared" si="0"/>
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
@@ -29688,11 +29685,11 @@
       </c>
       <c r="AB50">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC50">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.69387755102040816</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
@@ -29734,11 +29731,11 @@
       </c>
       <c r="AB51">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC51">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
@@ -29783,11 +29780,11 @@
       </c>
       <c r="AB52">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC52">
         <f t="shared" si="0"/>
-        <v>0.68627450980392157</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
@@ -29835,11 +29832,11 @@
       </c>
       <c r="AB53">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC53">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>0.67307692307692313</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
@@ -29887,11 +29884,11 @@
       </c>
       <c r="AB54">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC54">
         <f t="shared" si="0"/>
-        <v>0.69811320754716977</v>
+        <v>0.67924528301886788</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
@@ -29933,11 +29930,11 @@
       </c>
       <c r="AB55">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC55">
         <f t="shared" si="0"/>
-        <v>0.68518518518518523</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
@@ -29979,11 +29976,11 @@
       </c>
       <c r="AB56">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC56">
         <f t="shared" si="0"/>
-        <v>0.67272727272727273</v>
+        <v>0.65454545454545454</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
@@ -30028,11 +30025,11 @@
       </c>
       <c r="AB57">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC57">
         <f t="shared" si="0"/>
-        <v>0.6785714285714286</v>
+        <v>0.6607142857142857</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
@@ -30074,11 +30071,11 @@
       </c>
       <c r="AB58">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC58">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.64912280701754388</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
@@ -30120,11 +30117,11 @@
       </c>
       <c r="AB59">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC59">
         <f t="shared" si="0"/>
-        <v>0.65517241379310343</v>
+        <v>0.63793103448275867</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
@@ -30170,11 +30167,11 @@
       </c>
       <c r="AB60">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC60">
         <f t="shared" si="0"/>
-        <v>0.64406779661016944</v>
+        <v>0.6271186440677966</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
@@ -30208,8 +30205,8 @@
       <c r="Q61" t="s">
         <v>2511</v>
       </c>
-      <c r="T61" s="4">
-        <v>4</v>
+      <c r="T61" s="5" t="s">
+        <v>883</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>885</v>
@@ -30222,11 +30219,11 @@
       </c>
       <c r="AB61">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC61">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
@@ -30268,11 +30265,11 @@
       </c>
       <c r="AB62">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC62">
         <f t="shared" si="0"/>
-        <v>0.63934426229508201</v>
+        <v>0.60655737704918034</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
@@ -30315,11 +30312,11 @@
       </c>
       <c r="AB63">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC63">
         <f t="shared" si="0"/>
-        <v>0.62903225806451613</v>
+        <v>0.59677419354838712</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
@@ -30361,11 +30358,11 @@
       </c>
       <c r="AB64">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC64">
         <f t="shared" si="0"/>
-        <v>0.61904761904761907</v>
+        <v>0.58730158730158732</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
@@ -30407,11 +30404,11 @@
       </c>
       <c r="AB65">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC65">
         <f t="shared" si="0"/>
-        <v>0.609375</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -30453,11 +30450,11 @@
       </c>
       <c r="AB66">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC66">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.56923076923076921</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
@@ -30499,11 +30496,11 @@
       </c>
       <c r="AB67">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC67">
         <f t="shared" ref="AC67:AC101" si="2">AB67/AA67</f>
-        <v>0.60606060606060608</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
@@ -30545,11 +30542,11 @@
       </c>
       <c r="AB68">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC68">
         <f t="shared" si="2"/>
-        <v>0.61194029850746268</v>
+        <v>0.58208955223880599</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
@@ -30591,11 +30588,11 @@
       </c>
       <c r="AB69">
         <f t="shared" ref="AB69:AB101" si="3">AB68+(IF(ISNUMBER(T69),1,0))</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC69">
         <f t="shared" si="2"/>
-        <v>0.61764705882352944</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
@@ -30641,11 +30638,11 @@
       </c>
       <c r="AB70">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC70">
         <f t="shared" si="2"/>
-        <v>0.60869565217391308</v>
+        <v>0.57971014492753625</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
@@ -30687,11 +30684,11 @@
       </c>
       <c r="AB71">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC71">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
@@ -30733,11 +30730,11 @@
       </c>
       <c r="AB72">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC72">
         <f t="shared" si="2"/>
-        <v>0.59154929577464788</v>
+        <v>0.56338028169014087</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
@@ -30779,11 +30776,11 @@
       </c>
       <c r="AB73">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC73">
         <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
@@ -30825,11 +30822,11 @@
       </c>
       <c r="AB74">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC74">
         <f t="shared" si="2"/>
-        <v>0.57534246575342463</v>
+        <v>0.54794520547945202</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
@@ -30871,11 +30868,11 @@
       </c>
       <c r="AB75">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC75">
         <f t="shared" si="2"/>
-        <v>0.56756756756756754</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
@@ -30917,11 +30914,11 @@
       </c>
       <c r="AB76">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC76">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
@@ -30966,11 +30963,11 @@
       </c>
       <c r="AB77">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC77">
         <f t="shared" si="2"/>
-        <v>0.56578947368421051</v>
+        <v>0.53947368421052633</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
@@ -31012,11 +31009,11 @@
       </c>
       <c r="AB78">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC78">
         <f t="shared" si="2"/>
-        <v>0.55844155844155841</v>
+        <v>0.53246753246753242</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
@@ -31061,11 +31058,11 @@
       </c>
       <c r="AB79">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC79">
         <f t="shared" si="2"/>
-        <v>0.55128205128205132</v>
+        <v>0.52564102564102566</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
@@ -31107,11 +31104,11 @@
       </c>
       <c r="AB80">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC80">
         <f t="shared" si="2"/>
-        <v>0.54430379746835444</v>
+        <v>0.51898734177215189</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
@@ -31153,11 +31150,11 @@
       </c>
       <c r="AB81">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC81">
         <f t="shared" si="2"/>
-        <v>0.53749999999999998</v>
+        <v>0.51249999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
@@ -31199,11 +31196,11 @@
       </c>
       <c r="AB82">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC82">
         <f t="shared" si="2"/>
-        <v>0.53086419753086422</v>
+        <v>0.50617283950617287</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
@@ -31245,11 +31242,11 @@
       </c>
       <c r="AB83">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC83">
         <f t="shared" si="2"/>
-        <v>0.52439024390243905</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
@@ -31291,11 +31288,11 @@
       </c>
       <c r="AB84">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC84">
         <f t="shared" si="2"/>
-        <v>0.51807228915662651</v>
+        <v>0.49397590361445781</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
@@ -31337,11 +31334,11 @@
       </c>
       <c r="AB85">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC85">
         <f t="shared" si="2"/>
-        <v>0.51190476190476186</v>
+        <v>0.48809523809523808</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -31386,11 +31383,11 @@
       </c>
       <c r="AB86">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC86">
         <f t="shared" si="2"/>
-        <v>0.51764705882352946</v>
+        <v>0.49411764705882355</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
@@ -31432,11 +31429,11 @@
       </c>
       <c r="AB87">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC87">
         <f t="shared" si="2"/>
-        <v>0.51162790697674421</v>
+        <v>0.48837209302325579</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
@@ -31478,11 +31475,11 @@
       </c>
       <c r="AB88">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC88">
         <f t="shared" si="2"/>
-        <v>0.51724137931034486</v>
+        <v>0.4942528735632184</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
@@ -31527,11 +31524,11 @@
       </c>
       <c r="AB89">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC89">
         <f t="shared" si="2"/>
-        <v>0.52272727272727271</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
@@ -31576,11 +31573,11 @@
       </c>
       <c r="AB90">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC90">
         <f t="shared" si="2"/>
-        <v>0.5280898876404494</v>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
@@ -31622,11 +31619,11 @@
       </c>
       <c r="AB91">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC91">
         <f t="shared" si="2"/>
-        <v>0.52222222222222225</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
@@ -31671,11 +31668,11 @@
       </c>
       <c r="AB92">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC92">
         <f t="shared" si="2"/>
-        <v>0.52747252747252749</v>
+        <v>0.50549450549450547</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
@@ -31717,11 +31714,11 @@
       </c>
       <c r="AB93">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC93">
         <f t="shared" si="2"/>
-        <v>0.53260869565217395</v>
+        <v>0.51086956521739135</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
@@ -31763,11 +31760,11 @@
       </c>
       <c r="AB94">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC94">
         <f t="shared" si="2"/>
-        <v>0.5268817204301075</v>
+        <v>0.5053763440860215</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
@@ -31809,11 +31806,11 @@
       </c>
       <c r="AB95">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>0.52127659574468088</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
@@ -31855,11 +31852,11 @@
       </c>
       <c r="AB96">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC96">
         <f t="shared" si="2"/>
-        <v>0.51578947368421058</v>
+        <v>0.49473684210526314</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
@@ -31901,11 +31898,11 @@
       </c>
       <c r="AB97">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC97">
         <f t="shared" si="2"/>
-        <v>0.51041666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
@@ -31950,11 +31947,11 @@
       </c>
       <c r="AB98">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC98">
         <f t="shared" si="2"/>
-        <v>0.51546391752577314</v>
+        <v>0.49484536082474229</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
@@ -31996,11 +31993,11 @@
       </c>
       <c r="AB99">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC99">
         <f t="shared" si="2"/>
-        <v>0.51020408163265307</v>
+        <v>0.48979591836734693</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
@@ -32042,11 +32039,11 @@
       </c>
       <c r="AB100">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC100">
         <f t="shared" si="2"/>
-        <v>0.50505050505050508</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
@@ -32088,11 +32085,11 @@
       </c>
       <c r="AB101">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC101">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">

--- a/Iter3-averageCosine.xlsx
+++ b/Iter3-averageCosine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6CA50-BCAD-45BF-9273-B17D0438B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D34B254-559D-4AE6-AA8C-20EF2ABB5BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="3024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="3024">
   <si>
     <t>UID</t>
   </si>
@@ -9495,8 +9495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD501"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="AD2">
         <f>COUNTIF(S2:S101,AC2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="AD3">
         <f>COUNTIF(S2:S101,AC3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="AD10">
         <f>COUNTIF(S2:S101,AC10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="AD14">
         <f>COUNTIF(S2:S101,AC14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -10942,7 +10942,7 @@
         <v>1284</v>
       </c>
       <c r="S29" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z29">
         <v>28</v>
@@ -11513,17 +11513,19 @@
       <c r="Q41" t="s">
         <v>1270</v>
       </c>
-      <c r="S41" s="4"/>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
       <c r="Z41">
         <v>40</v>
       </c>
       <c r="AA41">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB41">
         <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
@@ -11571,11 +11573,11 @@
       </c>
       <c r="AA42">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB42">
         <f t="shared" si="1"/>
-        <v>0.78048780487804881</v>
+        <v>0.80487804878048785</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -11617,11 +11619,11 @@
       </c>
       <c r="AA43">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB43">
         <f t="shared" si="1"/>
-        <v>0.76190476190476186</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
@@ -11667,11 +11669,11 @@
       </c>
       <c r="AA44">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB44">
         <f t="shared" si="1"/>
-        <v>0.7441860465116279</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
@@ -11716,11 +11718,11 @@
       </c>
       <c r="AA45">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB45">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
@@ -11762,11 +11764,11 @@
       </c>
       <c r="AA46">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB46">
         <f t="shared" si="1"/>
-        <v>0.71111111111111114</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
@@ -11808,11 +11810,11 @@
       </c>
       <c r="AA47">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB47">
         <f t="shared" si="1"/>
-        <v>0.69565217391304346</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
@@ -11854,11 +11856,11 @@
       </c>
       <c r="AA48">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB48">
         <f t="shared" si="1"/>
-        <v>0.7021276595744681</v>
+        <v>0.72340425531914898</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
@@ -11900,11 +11902,11 @@
       </c>
       <c r="AA49">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB49">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
@@ -11949,11 +11951,11 @@
       </c>
       <c r="AA50">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB50">
         <f t="shared" si="1"/>
-        <v>0.69387755102040816</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
@@ -11998,11 +12000,11 @@
       </c>
       <c r="AA51">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB51">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
@@ -12048,11 +12050,11 @@
       </c>
       <c r="AA52">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB52">
         <f t="shared" si="1"/>
-        <v>0.68627450980392157</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
@@ -12094,11 +12096,11 @@
       </c>
       <c r="AA53">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB53">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
+        <v>0.71153846153846156</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -12144,11 +12146,11 @@
       </c>
       <c r="AA54">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB54">
         <f t="shared" si="1"/>
-        <v>0.67924528301886788</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
@@ -12193,11 +12195,11 @@
       </c>
       <c r="AA55">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB55">
         <f t="shared" si="1"/>
-        <v>0.68518518518518523</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
@@ -12239,11 +12241,11 @@
       </c>
       <c r="AA56">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB56">
         <f t="shared" si="1"/>
-        <v>0.69090909090909092</v>
+        <v>0.70909090909090911</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
@@ -12288,11 +12290,11 @@
       </c>
       <c r="AA57">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB57">
         <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
+        <v>0.6964285714285714</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -12338,11 +12340,11 @@
       </c>
       <c r="AA58">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB58">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
@@ -12384,11 +12386,11 @@
       </c>
       <c r="AA59">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB59">
         <f t="shared" si="1"/>
-        <v>0.65517241379310343</v>
+        <v>0.67241379310344829</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
@@ -12434,11 +12436,11 @@
       </c>
       <c r="AA60">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB60">
         <f t="shared" si="1"/>
-        <v>0.64406779661016944</v>
+        <v>0.66101694915254239</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
@@ -12480,11 +12482,11 @@
       </c>
       <c r="AA61">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB61">
         <f t="shared" si="1"/>
-        <v>0.6333333333333333</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
@@ -12529,11 +12531,11 @@
       </c>
       <c r="AA62">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB62">
         <f t="shared" si="1"/>
-        <v>0.63934426229508201</v>
+        <v>0.65573770491803274</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
@@ -12575,11 +12577,11 @@
       </c>
       <c r="AA63">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB63">
         <f t="shared" si="1"/>
-        <v>0.64516129032258063</v>
+        <v>0.66129032258064513</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
@@ -12624,11 +12626,11 @@
       </c>
       <c r="AA64">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB64">
         <f t="shared" si="1"/>
-        <v>0.65079365079365081</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
@@ -12674,11 +12676,11 @@
       </c>
       <c r="AA65">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB65">
         <f t="shared" si="1"/>
-        <v>0.640625</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -12720,11 +12722,11 @@
       </c>
       <c r="AA66">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB66">
         <f t="shared" si="1"/>
-        <v>0.64615384615384619</v>
+        <v>0.66153846153846152</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -12758,8 +12760,8 @@
       <c r="Q67" t="s">
         <v>1313</v>
       </c>
-      <c r="S67" s="3">
-        <v>15</v>
+      <c r="S67" s="6" t="s">
+        <v>885</v>
       </c>
       <c r="Z67">
         <v>66</v>
@@ -27192,8 +27194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27400,7 +27402,7 @@
       </c>
       <c r="AE4">
         <f>COUNTIF(T2:T101,AD4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -27453,7 +27455,7 @@
       </c>
       <c r="AE5">
         <f>COUNTIF(T2:T101,AD5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -27509,7 +27511,7 @@
       </c>
       <c r="AE6">
         <f>COUNTIF(T2:T101,AD6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -27565,7 +27567,7 @@
       </c>
       <c r="AE7">
         <f>COUNTIF(T2:T101,AD7)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -27600,7 +27602,7 @@
         <v>2458</v>
       </c>
       <c r="T8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
         <v>886</v>
@@ -27876,8 +27878,8 @@
       <c r="Q13" t="s">
         <v>2463</v>
       </c>
-      <c r="T13" s="4">
-        <v>3</v>
+      <c r="T13" s="6" t="s">
+        <v>885</v>
       </c>
       <c r="U13" t="s">
         <v>887</v>
@@ -27887,11 +27889,11 @@
       </c>
       <c r="AB13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AD13">
         <v>14</v>
@@ -27940,11 +27942,11 @@
       </c>
       <c r="AB14">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="AD14">
         <v>15</v>
@@ -27996,18 +27998,18 @@
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AD15">
         <v>16</v>
       </c>
       <c r="AE15">
         <f>COUNTIF(T2:T101,AD15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -28041,19 +28043,19 @@
       <c r="Q16" t="s">
         <v>2466</v>
       </c>
-      <c r="T16" s="6" t="s">
-        <v>885</v>
+      <c r="T16" s="5" t="s">
+        <v>883</v>
       </c>
       <c r="AA16">
         <v>15</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>AB15+(IF(ISNUMBER(T17),1,0))</f>
+        <v>13</v>
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
@@ -28087,8 +28089,8 @@
       <c r="Q17" t="s">
         <v>2467</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>883</v>
+      <c r="T17" s="6" t="s">
+        <v>885</v>
       </c>
       <c r="V17" t="s">
         <v>884</v>
@@ -28097,12 +28099,12 @@
         <v>16</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>AB16+(IF(ISNUMBER(#REF!),1,0))</f>
+        <v>13</v>
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -28147,11 +28149,11 @@
       </c>
       <c r="AB18">
         <f>AB17+(IF(ISNUMBER(#REF!),1,0))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -28193,11 +28195,11 @@
       </c>
       <c r="AB19">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC19">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -28232,18 +28234,18 @@
         <v>2470</v>
       </c>
       <c r="T20" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA20">
         <v>19</v>
       </c>
       <c r="AB20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>0.84210526315789469</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -28288,11 +28290,11 @@
       </c>
       <c r="AB21">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC21">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -28334,11 +28336,11 @@
       </c>
       <c r="AB22">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -28380,11 +28382,11 @@
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC23">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
@@ -28426,11 +28428,11 @@
       </c>
       <c r="AB24">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC24">
         <f t="shared" si="0"/>
-        <v>0.78260869565217395</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
@@ -28472,11 +28474,11 @@
       </c>
       <c r="AB25">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC25">
         <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -28518,11 +28520,11 @@
       </c>
       <c r="AB26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC26">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
@@ -28567,11 +28569,11 @@
       </c>
       <c r="AB27">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC27">
         <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -28616,11 +28618,11 @@
       </c>
       <c r="AB28">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC28">
         <f t="shared" si="0"/>
-        <v>0.81481481481481477</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -28662,11 +28664,11 @@
       </c>
       <c r="AB29">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC29">
         <f t="shared" si="0"/>
-        <v>0.8214285714285714</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -28712,11 +28714,11 @@
       </c>
       <c r="AB30">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC30">
         <f t="shared" si="0"/>
-        <v>0.7931034482758621</v>
+        <v>0.75862068965517238</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -28758,11 +28760,11 @@
       </c>
       <c r="AB31">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC31">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
@@ -28810,11 +28812,11 @@
       </c>
       <c r="AB32">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC32">
         <f t="shared" si="0"/>
-        <v>0.80645161290322576</v>
+        <v>0.77419354838709675</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -28856,11 +28858,11 @@
       </c>
       <c r="AB33">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC33">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
@@ -28905,11 +28907,11 @@
       </c>
       <c r="AB34">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC34">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.78787878787878785</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -28954,11 +28956,11 @@
       </c>
       <c r="AB35">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC35">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -29004,11 +29006,11 @@
       </c>
       <c r="AB36">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC36">
         <f t="shared" si="0"/>
-        <v>0.82857142857142863</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -29053,11 +29055,11 @@
       </c>
       <c r="AB37">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC37">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -29105,11 +29107,11 @@
       </c>
       <c r="AB38">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC38">
         <f t="shared" si="0"/>
-        <v>0.83783783783783783</v>
+        <v>0.81081081081081086</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -29151,11 +29153,11 @@
       </c>
       <c r="AB39">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC39">
         <f t="shared" si="0"/>
-        <v>0.81578947368421051</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
@@ -29200,11 +29202,11 @@
       </c>
       <c r="AB40">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC40">
         <f t="shared" si="0"/>
-        <v>0.79487179487179482</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
@@ -29249,11 +29251,11 @@
       </c>
       <c r="AB41">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC41">
         <f t="shared" si="0"/>
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -29298,11 +29300,11 @@
       </c>
       <c r="AB42">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC42">
         <f t="shared" si="0"/>
-        <v>0.78048780487804881</v>
+        <v>0.75609756097560976</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -29336,8 +29338,8 @@
       <c r="Q43" t="s">
         <v>2493</v>
       </c>
-      <c r="T43" s="6" t="s">
-        <v>885</v>
+      <c r="T43" s="5" t="s">
+        <v>883</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" t="s">
@@ -29348,11 +29350,11 @@
       </c>
       <c r="AB43">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC43">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.73809523809523814</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
@@ -29386,8 +29388,8 @@
       <c r="Q44" t="s">
         <v>2494</v>
       </c>
-      <c r="T44" s="6" t="s">
-        <v>885</v>
+      <c r="T44" s="3">
+        <v>6</v>
       </c>
       <c r="V44" t="s">
         <v>2995</v>
@@ -29484,10 +29486,7 @@
       <c r="Q46" t="s">
         <v>2496</v>
       </c>
-      <c r="T46" s="4">
-        <v>16</v>
-      </c>
-      <c r="U46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>885</v>
       </c>
       <c r="V46" t="s">
@@ -29497,12 +29496,12 @@
         <v>45</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>AB45+(IF(ISNUMBER(#REF!),1,0))</f>
+        <v>33</v>
       </c>
       <c r="AC46">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
@@ -29544,11 +29543,11 @@
       </c>
       <c r="AB47">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC47">
         <f t="shared" si="0"/>
-        <v>0.73913043478260865</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
@@ -29590,11 +29589,11 @@
       </c>
       <c r="AB48">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC48">
         <f t="shared" si="0"/>
-        <v>0.72340425531914898</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
@@ -29639,11 +29638,11 @@
       </c>
       <c r="AB49">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC49">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
@@ -29685,11 +29684,11 @@
       </c>
       <c r="AB50">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC50">
         <f t="shared" si="0"/>
-        <v>0.69387755102040816</v>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
@@ -29731,11 +29730,11 @@
       </c>
       <c r="AB51">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC51">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
@@ -29780,11 +29779,11 @@
       </c>
       <c r="AB52">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC52">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
@@ -29832,11 +29831,11 @@
       </c>
       <c r="AB53">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC53">
         <f t="shared" si="0"/>
-        <v>0.67307692307692313</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
@@ -29884,11 +29883,11 @@
       </c>
       <c r="AB54">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC54">
         <f t="shared" si="0"/>
-        <v>0.67924528301886788</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
@@ -29930,11 +29929,11 @@
       </c>
       <c r="AB55">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC55">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
@@ -29976,11 +29975,11 @@
       </c>
       <c r="AB56">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC56">
         <f t="shared" si="0"/>
-        <v>0.65454545454545454</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
@@ -30025,11 +30024,11 @@
       </c>
       <c r="AB57">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC57">
         <f t="shared" si="0"/>
-        <v>0.6607142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
@@ -30071,11 +30070,11 @@
       </c>
       <c r="AB58">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC58">
         <f t="shared" si="0"/>
-        <v>0.64912280701754388</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
@@ -30117,11 +30116,11 @@
       </c>
       <c r="AB59">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC59">
         <f t="shared" si="0"/>
-        <v>0.63793103448275867</v>
+        <v>0.62068965517241381</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
@@ -30167,11 +30166,11 @@
       </c>
       <c r="AB60">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC60">
         <f t="shared" si="0"/>
-        <v>0.6271186440677966</v>
+        <v>0.61016949152542377</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
@@ -30219,11 +30218,11 @@
       </c>
       <c r="AB61">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC61">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
@@ -30265,11 +30264,11 @@
       </c>
       <c r="AB62">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC62">
         <f t="shared" si="0"/>
-        <v>0.60655737704918034</v>
+        <v>0.5901639344262295</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
@@ -30312,11 +30311,11 @@
       </c>
       <c r="AB63">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC63">
         <f t="shared" si="0"/>
-        <v>0.59677419354838712</v>
+        <v>0.58064516129032262</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
@@ -30358,11 +30357,11 @@
       </c>
       <c r="AB64">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC64">
         <f t="shared" si="0"/>
-        <v>0.58730158730158732</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
@@ -30404,11 +30403,11 @@
       </c>
       <c r="AB65">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC65">
         <f t="shared" si="0"/>
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -30450,11 +30449,11 @@
       </c>
       <c r="AB66">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC66">
         <f t="shared" si="0"/>
-        <v>0.56923076923076921</v>
+        <v>0.55384615384615388</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
@@ -30496,11 +30495,11 @@
       </c>
       <c r="AB67">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC67">
         <f t="shared" ref="AC67:AC101" si="2">AB67/AA67</f>
-        <v>0.5757575757575758</v>
+        <v>0.56060606060606055</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
@@ -30542,11 +30541,11 @@
       </c>
       <c r="AB68">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC68">
         <f t="shared" si="2"/>
-        <v>0.58208955223880599</v>
+        <v>0.56716417910447758</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
@@ -30588,11 +30587,11 @@
       </c>
       <c r="AB69">
         <f t="shared" ref="AB69:AB101" si="3">AB68+(IF(ISNUMBER(T69),1,0))</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC69">
         <f t="shared" si="2"/>
-        <v>0.58823529411764708</v>
+        <v>0.57352941176470584</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
@@ -30638,11 +30637,11 @@
       </c>
       <c r="AB70">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC70">
         <f t="shared" si="2"/>
-        <v>0.57971014492753625</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
@@ -30684,11 +30683,11 @@
       </c>
       <c r="AB71">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC71">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
@@ -30730,11 +30729,11 @@
       </c>
       <c r="AB72">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC72">
         <f t="shared" si="2"/>
-        <v>0.56338028169014087</v>
+        <v>0.54929577464788737</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
@@ -30776,11 +30775,11 @@
       </c>
       <c r="AB73">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC73">
         <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
@@ -30822,11 +30821,11 @@
       </c>
       <c r="AB74">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC74">
         <f t="shared" si="2"/>
-        <v>0.54794520547945202</v>
+        <v>0.53424657534246578</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
@@ -30868,11 +30867,11 @@
       </c>
       <c r="AB75">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC75">
         <f t="shared" si="2"/>
-        <v>0.54054054054054057</v>
+        <v>0.52702702702702697</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
@@ -30914,11 +30913,11 @@
       </c>
       <c r="AB76">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC76">
         <f t="shared" si="2"/>
-        <v>0.53333333333333333</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
@@ -30963,11 +30962,11 @@
       </c>
       <c r="AB77">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC77">
         <f t="shared" si="2"/>
-        <v>0.53947368421052633</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
@@ -31009,11 +31008,11 @@
       </c>
       <c r="AB78">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC78">
         <f t="shared" si="2"/>
-        <v>0.53246753246753242</v>
+        <v>0.51948051948051943</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
@@ -31058,11 +31057,11 @@
       </c>
       <c r="AB79">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC79">
         <f t="shared" si="2"/>
-        <v>0.52564102564102566</v>
+        <v>0.51282051282051277</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
@@ -31104,11 +31103,11 @@
       </c>
       <c r="AB80">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC80">
         <f t="shared" si="2"/>
-        <v>0.51898734177215189</v>
+        <v>0.50632911392405067</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
@@ -31150,11 +31149,11 @@
       </c>
       <c r="AB81">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC81">
         <f t="shared" si="2"/>
-        <v>0.51249999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
@@ -31196,11 +31195,11 @@
       </c>
       <c r="AB82">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC82">
         <f t="shared" si="2"/>
-        <v>0.50617283950617287</v>
+        <v>0.49382716049382713</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
@@ -31242,11 +31241,11 @@
       </c>
       <c r="AB83">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC83">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.48780487804878048</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
@@ -31288,11 +31287,11 @@
       </c>
       <c r="AB84">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC84">
         <f t="shared" si="2"/>
-        <v>0.49397590361445781</v>
+        <v>0.48192771084337349</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
@@ -31334,11 +31333,11 @@
       </c>
       <c r="AB85">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC85">
         <f t="shared" si="2"/>
-        <v>0.48809523809523808</v>
+        <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -31383,11 +31382,11 @@
       </c>
       <c r="AB86">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC86">
         <f t="shared" si="2"/>
-        <v>0.49411764705882355</v>
+        <v>0.4823529411764706</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
@@ -31429,11 +31428,11 @@
       </c>
       <c r="AB87">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC87">
         <f t="shared" si="2"/>
-        <v>0.48837209302325579</v>
+        <v>0.47674418604651164</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
@@ -31475,11 +31474,11 @@
       </c>
       <c r="AB88">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC88">
         <f t="shared" si="2"/>
-        <v>0.4942528735632184</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
@@ -31524,11 +31523,11 @@
       </c>
       <c r="AB89">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC89">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.48863636363636365</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
@@ -31573,11 +31572,11 @@
       </c>
       <c r="AB90">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC90">
         <f t="shared" si="2"/>
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
@@ -31619,11 +31618,11 @@
       </c>
       <c r="AB91">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC91">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.48888888888888887</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
@@ -31668,11 +31667,11 @@
       </c>
       <c r="AB92">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC92">
         <f t="shared" si="2"/>
-        <v>0.50549450549450547</v>
+        <v>0.49450549450549453</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
@@ -31714,11 +31713,11 @@
       </c>
       <c r="AB93">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC93">
         <f t="shared" si="2"/>
-        <v>0.51086956521739135</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
@@ -31760,11 +31759,11 @@
       </c>
       <c r="AB94">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC94">
         <f t="shared" si="2"/>
-        <v>0.5053763440860215</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
@@ -31806,11 +31805,11 @@
       </c>
       <c r="AB95">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC95">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.48936170212765956</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
@@ -31852,11 +31851,11 @@
       </c>
       <c r="AB96">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC96">
         <f t="shared" si="2"/>
-        <v>0.49473684210526314</v>
+        <v>0.48421052631578948</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
@@ -31898,11 +31897,11 @@
       </c>
       <c r="AB97">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC97">
         <f t="shared" si="2"/>
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
@@ -31947,11 +31946,11 @@
       </c>
       <c r="AB98">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC98">
         <f t="shared" si="2"/>
-        <v>0.49484536082474229</v>
+        <v>0.4845360824742268</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
@@ -31993,11 +31992,11 @@
       </c>
       <c r="AB99">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC99">
         <f t="shared" si="2"/>
-        <v>0.48979591836734693</v>
+        <v>0.47959183673469385</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
@@ -32039,11 +32038,11 @@
       </c>
       <c r="AB100">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC100">
         <f t="shared" si="2"/>
-        <v>0.48484848484848486</v>
+        <v>0.47474747474747475</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
@@ -32085,11 +32084,11 @@
       </c>
       <c r="AB101">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC101">
         <f t="shared" si="2"/>
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
